--- a/resources/iTunesSearch_test_plan.xlsx
+++ b/resources/iTunesSearch_test_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debgh\eclipse-workspace\APIAutomation\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\debgh\eclipse-workspace\iTunesSearchAPITest\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{557B487C-94B1-454D-88C7-47B8AD945BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F5DDDA-C3A9-4A9E-B174-A25C93EBA0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4B52A0C6-87F2-421C-BFFD-9B2473010B58}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Test Scenarios</t>
   </si>
@@ -99,6 +99,33 @@
   </si>
   <si>
     <t>Verify that the API returns an appropriate response when all query parameters are used</t>
+  </si>
+  <si>
+    <t>Verify that the API returns search results in valid JSON format with the correct structure (objects and arrays).</t>
+  </si>
+  <si>
+    <t>Verify that the API returns all the expected keys (fields) in the JSON response</t>
+  </si>
+  <si>
+    <t>Verify that the values for specific keys in the JSON response match the expected values.</t>
+  </si>
+  <si>
+    <t>Verify artwork URLs are available in the response, verify that they are valid and accessible.</t>
+  </si>
+  <si>
+    <t>Verify view and preview URLs are available in the response, verify that they are valid and accessible.</t>
+  </si>
+  <si>
+    <t>Verify the media type is "track," verify that the "trackTimeMillis" value is present and represents the track's time in milliseconds.</t>
+  </si>
+  <si>
+    <t>Verify the "explicitness" keys are present in the response that have valid values representing the content's explicitness.</t>
+  </si>
+  <si>
+    <t>Verify the "censoredName" keys are present in the response that contain censored versions of the content names</t>
+  </si>
+  <si>
+    <t>Verify the "kind" key in the response represents the correct kind of content returned</t>
   </si>
 </sst>
 </file>
@@ -130,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,34 +180,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D205153-2E7E-41AB-B617-5F660138BE91}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,7 +528,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -523,7 +536,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -531,7 +544,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -539,7 +552,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -547,7 +560,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -555,7 +568,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -563,7 +576,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -571,7 +584,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -579,7 +592,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -587,7 +600,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -595,7 +608,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -603,7 +616,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -611,7 +624,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -619,7 +632,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -627,15 +640,15 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -643,7 +656,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -651,15 +664,15 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -667,11 +680,83 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
